--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+3. 남의 덕으로 분에 넘치는 행세를 한다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,8 @@
         <is>
           <t>서 발 막대 거칠 것 없다
 1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>무른 땅에 말뚝 박기
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,91 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가난한 집 족보 자랑하기다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 실속은 없으면서 허세만 부리다
 3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 일의 순서도 모르고 성급하게 덤빔</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2, 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -449,120 +449,122 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>서 발 막대 거칠 것 없다
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, 가난해 세간이 없음, 거리낄 것이 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>무른 땅에 말뚝 박기
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>우물에 가 숭늉 찾는다
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 가난해 세간이 없음, 거리낄 것이 없음
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>가난한 집 족보 자랑하기다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 실속은 없으면서 허세만 부리다
-3. 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>사또 덕분에 나팔 분다
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>아쉬운 감 유월부터 한다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>하늘 보고 손가락질한다(주먹질한다)
 1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
 2. 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>서 발 막대 거칠 것 없다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>무른 땅에 말뚝 박기
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>우물에 가 숭늉 찾는다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가난한 집 족보 자랑하기다
+1. 실속은 없으면서 허세만 부리다
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다
+1. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)
+1. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 무모하게 시비를 걸며 욕하다.
+          <t>1, 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
@@ -571,9 +573,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>불감청이언정 고소원이라
-1. 일의 순서도 모르고 성급하게 덤빔
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
 2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-3. 실속은 없으면서 허세만 부리다</t>
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -452,7 +452,7 @@
 1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
 2. 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,14 +465,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>서 발 막대 거칠 것 없다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 가난해 세간이 없음, 거리낄 것이 없음
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 가난해 세간이 없음, 거리낄 것이 없음</t>
+          <t>1, 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
         <is>
           <t>무른 땅에 말뚝 박기
 1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 가난해 세간이 없음, 거리낄 것이 없음
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
 3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
         </is>
       </c>
@@ -495,9 +495,9 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+1. 실속은 없으면서 허세만 부리다
 2. 일의 순서도 모르고 성급하게 덤빔
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -510,14 +510,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>가난한 집 족보 자랑하기다
-1. 실속은 없으면서 허세만 부리다
-2. 가난해 세간이 없음, 거리낄 것이 없음
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 실속은 없으면서 허세만 부리다</t>
+          <t>3, 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
     </row>
@@ -525,15 +525,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>사또 덕분에 나팔 분다
-1. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 남의 덕으로 분에 넘치는 행세를 한다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+          <t>3, 남의 덕으로 분에 넘치는 행세를 한다</t>
         </is>
       </c>
     </row>
@@ -541,14 +540,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>아쉬운 감 유월부터 한다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 실속은 없으면서 허세만 부리다</t>
+1. 실속은 없으면서 허세만 부리다
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+          <t>2, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
         </is>
       </c>
     </row>
@@ -558,8 +557,8 @@
           <t>하늘 보고 손가락질한다(주먹질한다)
 1. 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다
-2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 실속은 없으면서 허세만 부리다</t>
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -573,14 +572,15 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>불감청이언정 고소원이라
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+          <t>3, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,15 +449,15 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -465,14 +465,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>서 발 막대 거칠 것 없다
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 가난해 세간이 없음, 거리낄 것이 없음</t>
+          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>무른 땅에 말뚝 박기
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+1. 남의 덕으로 분에 넘치는 행세를 한다
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
     </row>
@@ -495,9 +495,10 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 실속은 없으면서 허세만 부리다
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
 2. 일의 순서도 모르고 성급하게 덤빔
-3. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -511,13 +512,14 @@
         <is>
           <t>가난한 집 족보 자랑하기다
 1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 실속은 없으면서 허세만 부리다</t>
+2. 실속은 없으면서 허세만 부리다
+3. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 실속은 없으면서 허세만 부리다</t>
+          <t>2, 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
     </row>
@@ -525,14 +527,15 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>사또 덕분에 나팔 분다
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+1. 남의 덕으로 분에 넘치는 행세를 한다
 2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 남의 덕으로 분에 넘치는 행세를 한다</t>
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 남의 덕으로 분에 넘치는 행세를 한다</t>
+          <t>1, 남의 덕으로 분에 넘치는 행세를 한다</t>
         </is>
       </c>
     </row>
@@ -540,9 +543,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>아쉬운 감 유월부터 한다
-1. 실속은 없으면서 허세만 부리다
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
 2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 일의 순서도 모르고 성급하게 덤빔</t>
+3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -555,15 +558,15 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>하늘 보고 손가락질한다(주먹질한다)
-1. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 무모하게 시비를 걸며 욕하다.
+          <t>3, 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
@@ -572,15 +575,31 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>불감청이언정 고소원이라
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
+1. 남의 덕으로 분에 넘치는 행세를 한다
+2. 실속은 없으면서 허세만 부리다
 3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>3, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>가랑이가 찟어지다
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -449,15 +449,15 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>서 발 막대 거칠 것 없다
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 일의 순서도 모르고 성급하게 덤빔
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
 3. 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
@@ -480,59 +480,57 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>무른 땅에 말뚝 박기
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>우물에 가 숭늉 찾는다
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가난한 집 족보 자랑하기다
+1. 남의 덕으로 분에 넘치는 행세를 한다
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다
 1. 남의 덕으로 분에 넘치는 행세를 한다
 2. 매우 쉬운 일, 강자가 약자를 괴롭힘
 3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>우물에 가 숭늉 찾는다
-1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>가난한 집 족보 자랑하기다
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 실속은 없으면서 허세만 부리다
-3. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>사또 덕분에 나팔 분다
-1. 남의 덕으로 분에 넘치는 행세를 한다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>1, 남의 덕으로 분에 넘치는 행세를 한다</t>
@@ -543,9 +541,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>아쉬운 감 유월부터 한다
-1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+1. 실속은 없으면서 허세만 부리다
 2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 실속은 없으면서 허세만 부리다</t>
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,15 +556,16 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>하늘 보고 손가락질한다(주먹질한다)
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 무모하게 시비를 걸며 욕하다.
+          <t>2, 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
@@ -575,9 +574,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>불감청이언정 고소원이라
-1. 남의 덕으로 분에 넘치는 행세를 한다
-2. 실속은 없으면서 허세만 부리다
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -590,15 +588,15 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>가랑이가 찟어지다
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
 2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
-2. 가난해 세간이 없음, 거리낄 것이 없음
 3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+          <t>2, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
 2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -449,15 +449,15 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>금강산 그늘이 관동 팔십 리
-1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-3. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
+1. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
         <is>
           <t>서 발 막대 거칠 것 없다
 1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+2. 남의 덕으로 분에 넘치는 행세를 한다
 3. 가난해 세간이 없음, 거리낄 것이 없음</t>
         </is>
       </c>
@@ -481,14 +481,14 @@
         <is>
           <t>무른 땅에 말뚝 박기
 1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
+2. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+          <t>3, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
         </is>
       </c>
     </row>
@@ -496,107 +496,107 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>우물에 가 숭늉 찾는다
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>가난한 집 족보 자랑하기다
-1. 남의 덕으로 분에 넘치는 행세를 한다
-2. 가난해 세간이 없음, 거리낄 것이 없음
-3. 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>사또 덕분에 나팔 분다
-1. 남의 덕으로 분에 넘치는 행세를 한다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>아쉬운 감 유월부터 한다
-1. 실속은 없으면서 허세만 부리다
-2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>하늘 보고 손가락질한다(주먹질한다)
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
-2. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>불감청이언정 고소원이라
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>가랑이가 찟어지다
 1. 일의 순서도 모르고 성급하게 덤빔
 2. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
 2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가난한 집 족보 자랑하기다
+1. 실속은 없으면서 허세만 부리다
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)
+1. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+2. 매우 쉬운 일, 강자가 약자를 괴롭힘
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1, 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>가랑이가 찟어지다
+1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
 3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
+          <t>1, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
 2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,161 +444,391 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>금강산 그늘이 관동 팔십 리
-1. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>하늘 보고 손가락질한다(주먹질한다)
+1. 일의 순서도 모르고 성급하게 덤빔
+2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
-        </is>
+          <t>3, 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>서 발 막대 거칠 것 없다
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+          <t>동풍 안개 속에 수수 잎 꼬이듯
+1. 남의 덕으로 분에 넘치는 행세를 한다
+2. 심술이 사납고 성질이 순순하지 못함
+3. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
-        </is>
+          <t>2, 심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>우물에 가 숭늉 찾는다
+1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>남의 말도 석 달
+1. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
+2. 이치에 맞지 아니한 말은 못 들은 척한다는 말.
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>터진 방앗공이에 보리알 끼듯 하였다
+1. 형식적인 인사 차림이 너무 과함을 이르는 말.
+2. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
+3. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>말 같지 않은 말은 귀가 없다
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+3. 이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>무른 땅에 말뚝 박기
-1. 가난해 세간이 없음, 거리낄 것이 없음
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>패랭이에 숟가락 꽂고 산다
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+2. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말
+3. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>말 안 하면 귀신도 모른다
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
+2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
+3. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>태산 명동에 서일필
+1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
+2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
+3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다
+1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+2. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
+3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>동풍에 곡식이 병난다
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
 2. 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>우물에 가 숭늉 찾는다
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>보리누름까지 세배한다
+1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
+2. 가난해 세간이 없음, 거리낄 것이 없음
+3. 형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3, 형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>사또 덕분에 나팔 분다
+1. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>남의 말이라면 쌍지팡이 짚고 나선다
+1. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.
+2. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
 3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>서 발 막대 거칠 것 없다
+1. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
+2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>동풍에 원두한의 탄식
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>가난한 집 족보 자랑하기다
 1. 실속은 없으면서 허세만 부리다
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+2. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
+3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>1, 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>사또 덕분에 나팔 분다
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>아쉬운 감 유월부터 한다
-1. 일의 순서도 모르고 성급하게 덤빔
-2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>하늘 보고 손가락질한다(주먹질한다)
-1. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-2. 매우 쉬운 일, 강자가 약자를 괴롭힘
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>불감청이언정 고소원이라
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>가랑이가 찟어지다
-1. 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
-2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+1. 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 심술이 사납고 성질이 순순하지 못함
+3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>금강산 그늘이 관동 팔십 리
+1. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말
+2. 형식적인 인사 차림이 너무 과함을 이르는 말.
 3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 1) ((주로 ‘가랑이가 찢어지게’의 꼴로 쓰여)) (사람이) 몹시 가난하여 살림살이가 궁색하다
-2) (무엇이) 자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
-        </is>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/객관식_국어_복습_속담.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_속담.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,391 +444,326 @@
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>하늘 보고 손가락질한다(주먹질한다)
-1. 일의 순서도 모르고 성급하게 덤빔
+          <t>금강산 그늘이 관동 팔십 리
+1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+2. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+3. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>서 발 막대 거칠 것 없다
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
 2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>무른 땅에 말뚝 박기
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 남의 덕으로 분에 넘치는 행세를 한다
 3. 무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3, 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>동풍 안개 속에 수수 잎 꼬이듯
-1. 남의 덕으로 분에 넘치는 행세를 한다
-2. 심술이 사납고 성질이 순순하지 못함
-3. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 심술이 사납고 성질이 순순하지 못함</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>우물에 가 숭늉 찾는다
-1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 심술이 사납고 성질이 순순하지 못함</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1</v>
+          <t>1, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>남의 말도 석 달
-1. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
-2. 이치에 맞지 아니한 말은 못 들은 척한다는 말.
-3. 실속은 없으면서 허세만 부리다</t>
+          <t>우물에 가 숭늉 찾는다
+1. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-1</v>
+          <t>2, 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>터진 방앗공이에 보리알 끼듯 하였다
-1. 형식적인 인사 차림이 너무 과함을 이르는 말.
-2. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
-3. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+          <t>가난한 집 족보 자랑하기다
+1. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말
+2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-1</v>
+          <t>3, 실속은 없으면서 허세만 부리다</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
-        <is>
-          <t>말 같지 않은 말은 귀가 없다
-1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
-2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
-3. 이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, 이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>무른 땅에 말뚝 박기
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 일의 순서도 모르고 성급하게 덤빔
-3. 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>패랭이에 숟가락 꽂고 산다
-1. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
-2. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말
-3. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>말 안 하면 귀신도 모른다
-1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
-2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
-3. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>태산 명동에 서일필
-1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
-2. 남의 덕으로 분에 넘치는 행세를 한다
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>불감청이언정 고소원이라
-1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
-2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
-3. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>아쉬운 감 유월부터 한다
-1. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
-2. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
-3. 매우 쉬운 일, 강자가 약자를 괴롭힘</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>동풍에 곡식이 병난다
-1. 매우 쉬운 일, 강자가 약자를 괴롭힘
-2. 무모하게 시비를 걸며 욕하다.
-능력이 없으면서 어떤 일을 이루려 하다
-3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>보리누름까지 세배한다
-1. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
-2. 가난해 세간이 없음, 거리낄 것이 없음
-3. 형식적인 인사 차림이 너무 과함을 이르는 말.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 형식적인 인사 차림이 너무 과함을 이르는 말.</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
         <is>
           <t>사또 덕분에 나팔 분다
 1. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
 2. 남의 덕으로 분에 넘치는 행세를 한다
+3. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>아쉬운 감 유월부터 한다
+1. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
 3. 일의 순서도 모르고 성급하게 덤빔</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>하늘 보고 손가락질한다(주먹질한다)
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
+2. 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다
+3. 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 무모하게 시비를 걸며 욕하다.
+능력이 없으면서 어떤 일을 이루려 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>불감청이언정 고소원이라
+1. 매우 쉬운 일, 강자가 약자를 괴롭힘
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+3. 일의 순서도 모르고 성급하게 덤빔</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>가랑이가 찟어지다
+1. 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
+3. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>동풍 안개 속에 수수 잎 꼬이듯
+1. 실속은 없으면서 허세만 부리다
+2. 심술이 사납고 성질이 순순하지 못함
+3. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>동풍에 원두한의 탄식
+1. 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
+2. 이치에 맞지 아니한 말은 못 들은 척한다는 말.
+3. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3, 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>동풍에 곡식이 병난다
+1. 가난해 세간이 없음, 거리낄 것이 없음
+2. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.
+3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>패랭이에 숟가락 꽂고 산다
+1. 훌륭한 사람 밑에서 그 덕의 도움을 받음
+2. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>태산 명동에 서일필
+1. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.
+2. 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.
+3. 심술이 사납고 성질이 순순하지 못함</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 남의 덕으로 분에 넘치는 행세를 한다</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-1</v>
+          <t>2, 소문에 비하여 결과는 별것 아닌 것을 비유적으로 이르는 말.</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>터진 방앗공이에 보리알 끼듯 하였다
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
+2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>보리누름까지 세배한다
+1. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
+2. 돈이 아쉬워서 물건답지 못한 것을 미리 내다 판다
+3. 형식적인 인사 차림이 너</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>말 같지 않은 말은 귀가 없다
+1. 이치에 맞지 아니한 말은 못 들은 척한다는 말.
+2. 감히 청하지는 못하였으나 본래 바라고 있던 바라는 말
+3. 실속은 없으면서 허세만 부리다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 이치에 맞지 아니한 말은 못 들은 척한다는 말.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>남의 말이라면 쌍지팡이 짚고 나선다
 1. 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.
-2. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.
-3. 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+2. 심술이 사납고 성질이 순순하지 못함
+3. 가난해 세간이 없음, 거리낄 것이 없음</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>1, 남에게 시비를 잘 걸고 나서는 사람을 이르는 말.</t>
         </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>서 발 막대 거칠 것 없다
-1. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
-2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
-3. 가난해 세간이 없음, 거리낄 것이 없음</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 가난해 세간이 없음, 거리낄 것이 없음</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>동풍에 원두한의 탄식
-1. 가난해 세간이 없음, 거리낄 것이 없음
-2. 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말
-3. 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 애써 한 일이 뜻하지 아니한 변으로 헛수고가 되고 마는 것을 한탄하는 말</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>가난한 집 족보 자랑하기다
-1. 실속은 없으면서 허세만 부리다
-2. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
-3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 실속은 없으면서 허세만 부리다</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>가랑이가 찟어지다
-1. 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다
-2. 심술이 사납고 성질이 순순하지 못함
-3. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말</t>
+          <t>말 안 하면 귀신도 모른다
+1. 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.
+2. 일의 순서도 모르고 성급하게 덤빔
+3. 실속은 없으면서 허세만 부리다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 몹시 가난하여 살림살이가 궁색하다,  자신이 해내기에 벅찬 일을 욕심내서 하다가 손해를 보다</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1</v>
+          <t>1, 마음속으로만 애태울 것이 아니라 시원스럽게 말을 하여야 한다는 말.</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>금강산 그늘이 관동 팔십 리
-1. 한참 낟알이 익어 갈 무렵에 때아닌 동풍이 불면 못쓰게 된다는 말
-2. 형식적인 인사 차림이 너무 과함을 이르는 말.
-3. 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
+          <t>남의 말도 석 달
+1. 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.
+2. 버리자니 아깝고 파내자니 품이 들어 할 수 없이 내버려 둘 수밖에 없음, 성가신 어떤 방해물이 끼어든 경우
+3. 아주 가난하여 떠돌아다니며 얻어먹을 정도임을 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 훌륭한 사람 밑에서 그 덕의 도움을 받음</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1</v>
+          <t>1, 소문은 시일이 지나면 흐지부지 없어지고 만다는 말.</t>
+        </is>
       </c>
     </row>
   </sheetData>
